--- a/data/georgia_census/samegrelo/chxorowyu/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/chxorowyu/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2302C02-8533-410C-9E73-E255FA543B1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E233DDC8-E107-4A4C-879E-5F7BDB6D1ECF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1742331D-9959-4B7D-8281-2F222BAE4C54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A63B076A-2FBB-41E6-AE40-18396A49C97B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F512C3-FF2F-4B9A-93A4-117FAEAA76EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF300942-8E56-4553-AD22-ED3CB0876757}"/>
 </file>